--- a/Code/Results/Cases/Case_5_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_122/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.73569555601143</v>
+        <v>16.28558348298703</v>
       </c>
       <c r="C2">
-        <v>18.75415643746615</v>
+        <v>11.21434405186053</v>
       </c>
       <c r="D2">
-        <v>8.100172121043171</v>
+        <v>9.880341846853174</v>
       </c>
       <c r="E2">
-        <v>11.33370827577399</v>
+        <v>13.95445731972162</v>
       </c>
       <c r="F2">
-        <v>20.64734820608091</v>
+        <v>29.4198112808336</v>
       </c>
       <c r="I2">
-        <v>10.22451795295361</v>
+        <v>19.27409676538315</v>
       </c>
       <c r="J2">
-        <v>6.284064979076975</v>
+        <v>9.787616231031489</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.56946573181519</v>
+        <v>21.72566271065692</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.10092486357378</v>
+        <v>15.53553635930225</v>
       </c>
       <c r="C3">
-        <v>17.52753145551358</v>
+        <v>10.57202405173082</v>
       </c>
       <c r="D3">
-        <v>7.724904138520339</v>
+        <v>9.811964237362423</v>
       </c>
       <c r="E3">
-        <v>10.84126773587164</v>
+        <v>13.88622203461793</v>
       </c>
       <c r="F3">
-        <v>20.20578405080544</v>
+        <v>29.50437966604854</v>
       </c>
       <c r="I3">
-        <v>10.66153527707193</v>
+        <v>19.44544583590759</v>
       </c>
       <c r="J3">
-        <v>6.171666371834307</v>
+        <v>9.795528358734193</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.53626059920975</v>
+        <v>21.84320915618736</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.03796971731136</v>
+        <v>15.05590403970334</v>
       </c>
       <c r="C4">
-        <v>16.73037868443485</v>
+        <v>10.15638819930143</v>
       </c>
       <c r="D4">
-        <v>7.487715570380404</v>
+        <v>9.771021521453013</v>
       </c>
       <c r="E4">
-        <v>10.53374354216938</v>
+        <v>13.8469139762207</v>
       </c>
       <c r="F4">
-        <v>19.9600617659962</v>
+        <v>29.566376447605</v>
       </c>
       <c r="I4">
-        <v>10.94258531494141</v>
+        <v>19.55627836323962</v>
       </c>
       <c r="J4">
-        <v>6.10559005670059</v>
+        <v>9.802050078544363</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.53877799712212</v>
+        <v>21.92237655212741</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.58984981685768</v>
+        <v>14.85587090174414</v>
       </c>
       <c r="C5">
-        <v>16.39442930961879</v>
+        <v>9.981770028799989</v>
       </c>
       <c r="D5">
-        <v>7.389473393987068</v>
+        <v>9.754611653543574</v>
       </c>
       <c r="E5">
-        <v>10.40729775846971</v>
+        <v>13.83155875148783</v>
       </c>
       <c r="F5">
-        <v>19.86625522489802</v>
+        <v>29.59416026829762</v>
       </c>
       <c r="I5">
-        <v>11.06016202050987</v>
+        <v>19.6028589652539</v>
       </c>
       <c r="J5">
-        <v>6.079412520137049</v>
+        <v>9.805126129649066</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.54526959725452</v>
+        <v>21.95638776736272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.51453455196259</v>
+        <v>14.82238620963235</v>
       </c>
       <c r="C6">
-        <v>16.33797360422058</v>
+        <v>9.952461515921398</v>
       </c>
       <c r="D6">
-        <v>7.37306835756691</v>
+        <v>9.751903758068801</v>
       </c>
       <c r="E6">
-        <v>10.3862389032197</v>
+        <v>13.82904941785813</v>
       </c>
       <c r="F6">
-        <v>19.8510585121033</v>
+        <v>29.59892553358095</v>
       </c>
       <c r="I6">
-        <v>11.07986568878131</v>
+        <v>19.6106791704042</v>
       </c>
       <c r="J6">
-        <v>6.075111284212858</v>
+        <v>9.805662175315286</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.54666885823553</v>
+        <v>21.96214073579848</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.03198686499584</v>
+        <v>15.05322454225485</v>
       </c>
       <c r="C7">
-        <v>16.72589295532933</v>
+        <v>10.15405431818304</v>
       </c>
       <c r="D7">
-        <v>7.486396894948872</v>
+        <v>9.770799083773788</v>
       </c>
       <c r="E7">
-        <v>10.53204257098161</v>
+        <v>13.84670418987347</v>
       </c>
       <c r="F7">
-        <v>19.95877114107866</v>
+        <v>29.56674096587949</v>
       </c>
       <c r="I7">
-        <v>10.94415883832963</v>
+        <v>19.55690083258491</v>
       </c>
       <c r="J7">
-        <v>6.105233971279214</v>
+        <v>9.802089869175546</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.53884381021096</v>
+        <v>21.92282816572728</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.18426844642696</v>
+        <v>16.03105545504938</v>
       </c>
       <c r="C8">
-        <v>18.34032216883505</v>
+        <v>10.99733553633764</v>
       </c>
       <c r="D8">
-        <v>7.972249930836875</v>
+        <v>9.856556874288616</v>
       </c>
       <c r="E8">
-        <v>11.16508218470345</v>
+        <v>13.93040008656536</v>
       </c>
       <c r="F8">
-        <v>20.48979853791568</v>
+        <v>29.44687265140214</v>
       </c>
       <c r="I8">
-        <v>10.37245976788534</v>
+        <v>19.33201157719906</v>
       </c>
       <c r="J8">
-        <v>6.244707120237146</v>
+        <v>9.789999111785466</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.55308921260878</v>
+        <v>21.76473603904745</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.93873279931532</v>
+        <v>17.78882160445054</v>
       </c>
       <c r="C9">
-        <v>21.15928792389742</v>
+        <v>12.47904981584828</v>
       </c>
       <c r="D9">
-        <v>8.867042762390271</v>
+        <v>10.03241323302141</v>
       </c>
       <c r="E9">
-        <v>12.35915548879296</v>
+        <v>14.1144928104993</v>
       </c>
       <c r="F9">
-        <v>21.7339277276309</v>
+        <v>29.2922565372358</v>
       </c>
       <c r="I9">
-        <v>9.361148684948278</v>
+        <v>18.93556228612077</v>
       </c>
       <c r="J9">
-        <v>6.541012518945228</v>
+        <v>9.779483241160925</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.77518809019647</v>
+        <v>21.51059287121541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.41835195166277</v>
+        <v>18.97385515298161</v>
       </c>
       <c r="C10">
-        <v>23.02244957629937</v>
+        <v>13.45949919669939</v>
       </c>
       <c r="D10">
-        <v>9.484630650580502</v>
+        <v>10.16550534432551</v>
       </c>
       <c r="E10">
-        <v>13.20072831379806</v>
+        <v>14.26109401486251</v>
       </c>
       <c r="F10">
-        <v>22.77181582089477</v>
+        <v>29.22836151625173</v>
       </c>
       <c r="I10">
-        <v>8.701440779575552</v>
+        <v>18.67136900038356</v>
       </c>
       <c r="J10">
-        <v>6.771936440199935</v>
+        <v>9.779787126839659</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.07233845030449</v>
+        <v>21.358459229459</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.4871373494254</v>
+        <v>19.48843426857424</v>
       </c>
       <c r="C11">
-        <v>23.82579278487539</v>
+        <v>13.88159880988164</v>
       </c>
       <c r="D11">
-        <v>9.756294886595573</v>
+        <v>10.22672274331512</v>
       </c>
       <c r="E11">
-        <v>13.57481247055309</v>
+        <v>14.33006039955103</v>
       </c>
       <c r="F11">
-        <v>23.27061335735559</v>
+        <v>29.2102032980803</v>
       </c>
       <c r="I11">
-        <v>8.424565220031486</v>
+        <v>18.55704456381945</v>
       </c>
       <c r="J11">
-        <v>6.87973303210168</v>
+        <v>9.781663632643593</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.23949565669981</v>
+        <v>21.29686976760751</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.88345507345209</v>
+        <v>19.67967655310762</v>
       </c>
       <c r="C12">
-        <v>24.12371857747399</v>
+        <v>14.03797336093675</v>
       </c>
       <c r="D12">
-        <v>9.857795593813162</v>
+        <v>10.24998601723045</v>
       </c>
       <c r="E12">
-        <v>13.71515154668253</v>
+        <v>14.35648653858966</v>
       </c>
       <c r="F12">
-        <v>23.46329796809442</v>
+        <v>29.20490337592393</v>
       </c>
       <c r="I12">
-        <v>8.323635986901005</v>
+        <v>18.51459456962973</v>
       </c>
       <c r="J12">
-        <v>6.920938829305712</v>
+        <v>9.782623474346057</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.30759551807798</v>
+        <v>21.27465169662614</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.79847316793237</v>
+        <v>19.63865133637576</v>
       </c>
       <c r="C13">
-        <v>24.05983309254989</v>
+        <v>14.00444977722247</v>
       </c>
       <c r="D13">
-        <v>9.835997136370306</v>
+        <v>10.24497247008266</v>
       </c>
       <c r="E13">
-        <v>13.68498641336773</v>
+        <v>14.35078168794684</v>
       </c>
       <c r="F13">
-        <v>23.42163132241814</v>
+        <v>29.20597459952264</v>
       </c>
       <c r="I13">
-        <v>8.345187998803981</v>
+        <v>18.52369948099735</v>
       </c>
       <c r="J13">
-        <v>6.912047403139175</v>
+        <v>9.782405682567909</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.29271251204358</v>
+        <v>21.27938748656659</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.5199105320316</v>
+        <v>19.50424087397989</v>
       </c>
       <c r="C14">
-        <v>23.850428782917</v>
+        <v>13.89453341762394</v>
       </c>
       <c r="D14">
-        <v>9.764673098956285</v>
+        <v>10.22863507945392</v>
       </c>
       <c r="E14">
-        <v>13.58638495269271</v>
+        <v>14.3322283808575</v>
       </c>
       <c r="F14">
-        <v>23.28638963525881</v>
+        <v>29.20973564183886</v>
       </c>
       <c r="I14">
-        <v>8.416179401696883</v>
+        <v>18.55353529936007</v>
       </c>
       <c r="J14">
-        <v>6.88311537719165</v>
+        <v>9.781737608613534</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.24500098365463</v>
+        <v>21.29501968497905</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34819112579452</v>
+        <v>19.42143692880068</v>
       </c>
       <c r="C15">
-        <v>23.72134672827411</v>
+        <v>13.82675450582894</v>
       </c>
       <c r="D15">
-        <v>9.720805369324911</v>
+        <v>10.21863812618563</v>
       </c>
       <c r="E15">
-        <v>13.52581554324039</v>
+        <v>14.3209038009495</v>
       </c>
       <c r="F15">
-        <v>23.20404426854409</v>
+        <v>29.21224486089149</v>
       </c>
       <c r="I15">
-        <v>8.460193327786914</v>
+        <v>18.5719202729268</v>
       </c>
       <c r="J15">
-        <v>6.865443642489829</v>
+        <v>9.781360830297062</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.21640710757653</v>
+        <v>21.30473897039237</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.34732183343575</v>
+        <v>18.93972473454815</v>
       </c>
       <c r="C16">
-        <v>22.96906576368364</v>
+        <v>13.43143034801721</v>
       </c>
       <c r="D16">
-        <v>9.466686489211583</v>
+        <v>10.16151688917453</v>
       </c>
       <c r="E16">
-        <v>13.17609937280732</v>
+        <v>14.25663124464894</v>
       </c>
       <c r="F16">
-        <v>22.73975180885911</v>
+        <v>29.2297683789038</v>
       </c>
       <c r="I16">
-        <v>8.720048985342077</v>
+        <v>18.67895823294981</v>
       </c>
       <c r="J16">
-        <v>6.764946106453827</v>
+        <v>9.779699413437424</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.06207573694542</v>
+        <v>21.36263830853123</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.71823019796818</v>
+        <v>18.6378623396121</v>
       </c>
       <c r="C17">
-        <v>22.49629244446984</v>
+        <v>13.18276571476319</v>
       </c>
       <c r="D17">
-        <v>9.308385114947269</v>
+        <v>10.12663646429649</v>
       </c>
       <c r="E17">
-        <v>12.95926966628833</v>
+        <v>14.21777309098703</v>
       </c>
       <c r="F17">
-        <v>22.46172734575008</v>
+        <v>29.2433181435504</v>
       </c>
       <c r="I17">
-        <v>8.885781060760943</v>
+        <v>18.74612281110439</v>
       </c>
       <c r="J17">
-        <v>6.703990466093594</v>
+        <v>9.779124936609159</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.97574150325103</v>
+        <v>21.40011515194632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.35081391964382</v>
+        <v>18.46193765244658</v>
       </c>
       <c r="C18">
-        <v>22.22019880990744</v>
+        <v>13.0374907647873</v>
       </c>
       <c r="D18">
-        <v>9.2164624195663</v>
+        <v>10.10663844297294</v>
       </c>
       <c r="E18">
-        <v>12.833733577542</v>
+        <v>14.19563828240582</v>
       </c>
       <c r="F18">
-        <v>22.30432618293352</v>
+        <v>29.25213794290227</v>
       </c>
       <c r="I18">
-        <v>8.983250308115915</v>
+        <v>18.78530552638706</v>
       </c>
       <c r="J18">
-        <v>6.66918952217946</v>
+        <v>9.778958177653395</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.92908414212048</v>
+        <v>21.42238723592428</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.22545169072135</v>
+        <v>18.40198047193272</v>
       </c>
       <c r="C19">
-        <v>22.12600036161713</v>
+        <v>12.98791773696115</v>
       </c>
       <c r="D19">
-        <v>9.185190576257723</v>
+        <v>10.09987895845273</v>
       </c>
       <c r="E19">
-        <v>12.79109027910825</v>
+        <v>14.1881813262598</v>
       </c>
       <c r="F19">
-        <v>22.25146516721019</v>
+        <v>29.2553001941858</v>
       </c>
       <c r="I19">
-        <v>9.016604601336315</v>
+        <v>18.79866683862821</v>
       </c>
       <c r="J19">
-        <v>6.657451354719589</v>
+        <v>9.77892984500836</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.91379541406036</v>
+        <v>21.4300509391686</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.78577477770559</v>
+        <v>18.67023503511527</v>
       </c>
       <c r="C20">
-        <v>22.54705070184525</v>
+        <v>13.20946953730348</v>
       </c>
       <c r="D20">
-        <v>9.325327121965417</v>
+        <v>10.13034300269978</v>
       </c>
       <c r="E20">
-        <v>12.98243706213434</v>
+        <v>14.22188744125127</v>
       </c>
       <c r="F20">
-        <v>22.4910638731438</v>
+        <v>29.24176946662704</v>
       </c>
       <c r="I20">
-        <v>8.867912890282385</v>
+        <v>18.73891595877167</v>
       </c>
       <c r="J20">
-        <v>6.710452556097579</v>
+        <v>9.77916915666585</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.98461991807504</v>
+        <v>21.39605146651627</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.60195845304691</v>
+        <v>19.54381934076162</v>
       </c>
       <c r="C21">
-        <v>23.91210578779405</v>
+        <v>13.92691274413867</v>
       </c>
       <c r="D21">
-        <v>9.785660198709071</v>
+        <v>10.2334316748966</v>
       </c>
       <c r="E21">
-        <v>13.61538276098848</v>
+        <v>14.33766966249884</v>
       </c>
       <c r="F21">
-        <v>23.32601048474913</v>
+        <v>29.2085881005925</v>
       </c>
       <c r="I21">
-        <v>8.395215901401823</v>
+        <v>18.54474894066046</v>
       </c>
       <c r="J21">
-        <v>6.891603015297977</v>
+        <v>9.781927079896569</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.25888322933352</v>
+        <v>21.29039808020709</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.73998388301468</v>
+        <v>20.09363790688439</v>
       </c>
       <c r="C22">
-        <v>24.76766614886051</v>
+        <v>14.37559686338581</v>
       </c>
       <c r="D22">
-        <v>10.07850382512733</v>
+        <v>10.30127445512182</v>
       </c>
       <c r="E22">
-        <v>14.02134937888387</v>
+        <v>14.41513894711355</v>
       </c>
       <c r="F22">
-        <v>23.89383943238573</v>
+        <v>29.19609205512402</v>
       </c>
       <c r="I22">
-        <v>8.109486977321184</v>
+        <v>18.42275849307607</v>
       </c>
       <c r="J22">
-        <v>7.01224004412636</v>
+        <v>9.785181935131316</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.46619083159706</v>
+        <v>21.22778965276528</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.13704127649211</v>
+        <v>19.80214895848601</v>
       </c>
       <c r="C23">
-        <v>24.31435825108808</v>
+        <v>14.13798159701819</v>
       </c>
       <c r="D23">
-        <v>9.922950356924284</v>
+        <v>10.26502767497717</v>
       </c>
       <c r="E23">
-        <v>13.80539696611805</v>
+        <v>14.37363338836145</v>
       </c>
       <c r="F23">
-        <v>23.58876178641879</v>
+        <v>29.20191837587056</v>
       </c>
       <c r="I23">
-        <v>8.259634785318351</v>
+        <v>18.48741796266713</v>
       </c>
       <c r="J23">
-        <v>6.947650933341731</v>
+        <v>9.783312133247582</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.35291890059507</v>
+        <v>21.26061248202437</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.7552557696548</v>
+        <v>18.65560674522317</v>
       </c>
       <c r="C24">
-        <v>22.52411626160101</v>
+        <v>13.19740394574128</v>
       </c>
       <c r="D24">
-        <v>9.317670481747848</v>
+        <v>10.12866710360462</v>
       </c>
       <c r="E24">
-        <v>12.97196581186242</v>
+        <v>14.22002670283566</v>
       </c>
       <c r="F24">
-        <v>22.47779323020674</v>
+        <v>29.24246641606285</v>
       </c>
       <c r="I24">
-        <v>8.875984317837128</v>
+        <v>18.74217240451532</v>
       </c>
       <c r="J24">
-        <v>6.707530286724427</v>
+        <v>9.779148655389941</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.98059672859285</v>
+        <v>21.39788639743488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.97242091991983</v>
+        <v>17.33143084942764</v>
       </c>
       <c r="C25">
-        <v>20.43348017336659</v>
+        <v>12.09701482776449</v>
       </c>
       <c r="D25">
-        <v>8.631704748554965</v>
+        <v>9.98409755898329</v>
       </c>
       <c r="E25">
-        <v>12.04198544314007</v>
+        <v>14.06263536441656</v>
       </c>
       <c r="F25">
-        <v>21.37555495975048</v>
+        <v>29.32539944408652</v>
       </c>
       <c r="I25">
-        <v>9.621541471312597</v>
+        <v>19.03805146126546</v>
       </c>
       <c r="J25">
-        <v>6.45848301665854</v>
+        <v>9.780916447615102</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.69262970530477</v>
+        <v>21.57330925135392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_122/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.28558348298703</v>
+        <v>24.73569555601147</v>
       </c>
       <c r="C2">
-        <v>11.21434405186053</v>
+        <v>18.75415643746615</v>
       </c>
       <c r="D2">
-        <v>9.880341846853174</v>
+        <v>8.100172121043146</v>
       </c>
       <c r="E2">
-        <v>13.95445731972162</v>
+        <v>11.33370827577395</v>
       </c>
       <c r="F2">
-        <v>29.4198112808336</v>
+        <v>20.64734820608084</v>
       </c>
       <c r="I2">
-        <v>19.27409676538315</v>
+        <v>10.22451795295359</v>
       </c>
       <c r="J2">
-        <v>9.787616231031489</v>
+        <v>6.284064979076975</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.72566271065692</v>
+        <v>13.56946573181513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.53553635930225</v>
+        <v>23.10092486357382</v>
       </c>
       <c r="C3">
-        <v>10.57202405173082</v>
+        <v>17.5275314555136</v>
       </c>
       <c r="D3">
-        <v>9.811964237362423</v>
+        <v>7.724904138520396</v>
       </c>
       <c r="E3">
-        <v>13.88622203461793</v>
+        <v>10.84126773587166</v>
       </c>
       <c r="F3">
-        <v>29.50437966604854</v>
+        <v>20.20578405080543</v>
       </c>
       <c r="I3">
-        <v>19.44544583590759</v>
+        <v>10.66153527707189</v>
       </c>
       <c r="J3">
-        <v>9.795528358734193</v>
+        <v>6.171666371834306</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.84320915618736</v>
+        <v>13.53626059920973</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.05590403970334</v>
+        <v>22.03796971731131</v>
       </c>
       <c r="C4">
-        <v>10.15638819930143</v>
+        <v>16.7303786844349</v>
       </c>
       <c r="D4">
-        <v>9.771021521453013</v>
+        <v>7.48771557038036</v>
       </c>
       <c r="E4">
-        <v>13.8469139762207</v>
+        <v>10.53374354216939</v>
       </c>
       <c r="F4">
-        <v>29.566376447605</v>
+        <v>19.96006176599628</v>
       </c>
       <c r="I4">
-        <v>19.55627836323962</v>
+        <v>10.94258531494154</v>
       </c>
       <c r="J4">
-        <v>9.802050078544363</v>
+        <v>6.105590056700635</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.92237655212741</v>
+        <v>13.53877799712226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.85587090174414</v>
+        <v>21.58984981685771</v>
       </c>
       <c r="C5">
-        <v>9.981770028799989</v>
+        <v>16.39442930961873</v>
       </c>
       <c r="D5">
-        <v>9.754611653543574</v>
+        <v>7.389473393987053</v>
       </c>
       <c r="E5">
-        <v>13.83155875148783</v>
+        <v>10.40729775846969</v>
       </c>
       <c r="F5">
-        <v>29.59416026829762</v>
+        <v>19.86625522489799</v>
       </c>
       <c r="I5">
-        <v>19.6028589652539</v>
+        <v>11.06016202050978</v>
       </c>
       <c r="J5">
-        <v>9.805126129649066</v>
+        <v>6.079412520137023</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.95638776736272</v>
+        <v>13.54526959725448</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.82238620963235</v>
+        <v>21.51453455196262</v>
       </c>
       <c r="C6">
-        <v>9.952461515921398</v>
+        <v>16.33797360422063</v>
       </c>
       <c r="D6">
-        <v>9.751903758068801</v>
+        <v>7.37306835756691</v>
       </c>
       <c r="E6">
-        <v>13.82904941785813</v>
+        <v>10.3862389032197</v>
       </c>
       <c r="F6">
-        <v>29.59892553358095</v>
+        <v>19.8510585121032</v>
       </c>
       <c r="I6">
-        <v>19.6106791704042</v>
+        <v>11.07986568878123</v>
       </c>
       <c r="J6">
-        <v>9.805662175315286</v>
+        <v>6.075111284212853</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.96214073579848</v>
+        <v>13.54666885823543</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.05322454225485</v>
+        <v>22.03198686499584</v>
       </c>
       <c r="C7">
-        <v>10.15405431818304</v>
+        <v>16.72589295532935</v>
       </c>
       <c r="D7">
-        <v>9.770799083773788</v>
+        <v>7.486396894948931</v>
       </c>
       <c r="E7">
-        <v>13.84670418987347</v>
+        <v>10.53204257098164</v>
       </c>
       <c r="F7">
-        <v>29.56674096587949</v>
+        <v>19.95877114107864</v>
       </c>
       <c r="I7">
-        <v>19.55690083258491</v>
+        <v>10.94415883832954</v>
       </c>
       <c r="J7">
-        <v>9.802089869175546</v>
+        <v>6.105233971279191</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.92282816572728</v>
+        <v>13.53884381021088</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.03105545504938</v>
+        <v>24.18426844642688</v>
       </c>
       <c r="C8">
-        <v>10.99733553633764</v>
+        <v>18.3403221688351</v>
       </c>
       <c r="D8">
-        <v>9.856556874288616</v>
+        <v>7.972249930836846</v>
       </c>
       <c r="E8">
-        <v>13.93040008656536</v>
+        <v>11.16508218470339</v>
       </c>
       <c r="F8">
-        <v>29.44687265140214</v>
+        <v>20.48979853791572</v>
       </c>
       <c r="I8">
-        <v>19.33201157719906</v>
+        <v>10.37245976788551</v>
       </c>
       <c r="J8">
-        <v>9.789999111785466</v>
+        <v>6.244707120237172</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.76473603904745</v>
+        <v>13.55308921260887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.78882160445054</v>
+        <v>27.93873279931531</v>
       </c>
       <c r="C9">
-        <v>12.47904981584828</v>
+        <v>21.15928792389731</v>
       </c>
       <c r="D9">
-        <v>10.03241323302141</v>
+        <v>8.867042762390174</v>
       </c>
       <c r="E9">
-        <v>14.1144928104993</v>
+        <v>12.35915548879292</v>
       </c>
       <c r="F9">
-        <v>29.2922565372358</v>
+        <v>21.73392772763096</v>
       </c>
       <c r="I9">
-        <v>18.93556228612077</v>
+        <v>9.361148684948322</v>
       </c>
       <c r="J9">
-        <v>9.779483241160925</v>
+        <v>6.54101251894524</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.51059287121541</v>
+        <v>13.77518809019659</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.97385515298161</v>
+        <v>30.41835195166276</v>
       </c>
       <c r="C10">
-        <v>13.45949919669939</v>
+        <v>23.02244957629934</v>
       </c>
       <c r="D10">
-        <v>10.16550534432551</v>
+        <v>9.484630650580462</v>
       </c>
       <c r="E10">
-        <v>14.26109401486251</v>
+        <v>13.20072831379804</v>
       </c>
       <c r="F10">
-        <v>29.22836151625173</v>
+        <v>22.77181582089477</v>
       </c>
       <c r="I10">
-        <v>18.67136900038356</v>
+        <v>8.701440779575622</v>
       </c>
       <c r="J10">
-        <v>9.779787126839659</v>
+        <v>6.771936440199935</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.358459229459</v>
+        <v>14.07233845030452</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.48843426857424</v>
+        <v>31.48713734942545</v>
       </c>
       <c r="C11">
-        <v>13.88159880988164</v>
+        <v>23.82579278487538</v>
       </c>
       <c r="D11">
-        <v>10.22672274331512</v>
+        <v>9.756294886595498</v>
       </c>
       <c r="E11">
-        <v>14.33006039955103</v>
+        <v>13.57481247055305</v>
       </c>
       <c r="F11">
-        <v>29.2102032980803</v>
+        <v>23.27061335735564</v>
       </c>
       <c r="I11">
-        <v>18.55704456381945</v>
+        <v>8.42456522003153</v>
       </c>
       <c r="J11">
-        <v>9.781663632643593</v>
+        <v>6.879733032101679</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.29686976760751</v>
+        <v>14.23949565669986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.67967655310762</v>
+        <v>31.88345507345205</v>
       </c>
       <c r="C12">
-        <v>14.03797336093675</v>
+        <v>24.12371857747402</v>
       </c>
       <c r="D12">
-        <v>10.24998601723045</v>
+        <v>9.857795593813155</v>
       </c>
       <c r="E12">
-        <v>14.35648653858966</v>
+        <v>13.71515154668254</v>
       </c>
       <c r="F12">
-        <v>29.20490337592393</v>
+        <v>23.4632979680945</v>
       </c>
       <c r="I12">
-        <v>18.51459456962973</v>
+        <v>8.323635986901103</v>
       </c>
       <c r="J12">
-        <v>9.782623474346057</v>
+        <v>6.920938829305706</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.27465169662614</v>
+        <v>14.30759551807804</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.63865133637576</v>
+        <v>31.79847316793226</v>
       </c>
       <c r="C13">
-        <v>14.00444977722247</v>
+        <v>24.05983309254974</v>
       </c>
       <c r="D13">
-        <v>10.24497247008266</v>
+        <v>9.835997136370256</v>
       </c>
       <c r="E13">
-        <v>14.35078168794684</v>
+        <v>13.68498641336765</v>
       </c>
       <c r="F13">
-        <v>29.20597459952264</v>
+        <v>23.42163132241829</v>
       </c>
       <c r="I13">
-        <v>18.52369948099735</v>
+        <v>8.345187998804256</v>
       </c>
       <c r="J13">
-        <v>9.782405682567909</v>
+        <v>6.912047403139152</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.27938748656659</v>
+        <v>14.29271251204375</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.50424087397989</v>
+        <v>31.51991053203156</v>
       </c>
       <c r="C14">
-        <v>13.89453341762394</v>
+        <v>23.85042878291704</v>
       </c>
       <c r="D14">
-        <v>10.22863507945392</v>
+        <v>9.764673098956258</v>
       </c>
       <c r="E14">
-        <v>14.3322283808575</v>
+        <v>13.58638495269271</v>
       </c>
       <c r="F14">
-        <v>29.20973564183886</v>
+        <v>23.28638963525888</v>
       </c>
       <c r="I14">
-        <v>18.55353529936007</v>
+        <v>8.416179401697006</v>
       </c>
       <c r="J14">
-        <v>9.781737608613534</v>
+        <v>6.883115377191687</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.29501968497905</v>
+        <v>14.24500098365472</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42143692880068</v>
+        <v>31.34819112579449</v>
       </c>
       <c r="C15">
-        <v>13.82675450582894</v>
+        <v>23.7213467282741</v>
       </c>
       <c r="D15">
-        <v>10.21863812618563</v>
+        <v>9.720805369324845</v>
       </c>
       <c r="E15">
-        <v>14.3209038009495</v>
+        <v>13.52581554324036</v>
       </c>
       <c r="F15">
-        <v>29.21224486089149</v>
+        <v>23.20404426854404</v>
       </c>
       <c r="I15">
-        <v>18.5719202729268</v>
+        <v>8.460193327786913</v>
       </c>
       <c r="J15">
-        <v>9.781360830297062</v>
+        <v>6.86544364248981</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.30473897039237</v>
+        <v>14.21640710757652</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.93972473454815</v>
+        <v>30.34732183343578</v>
       </c>
       <c r="C16">
-        <v>13.43143034801721</v>
+        <v>22.96906576368367</v>
       </c>
       <c r="D16">
-        <v>10.16151688917453</v>
+        <v>9.466686489211552</v>
       </c>
       <c r="E16">
-        <v>14.25663124464894</v>
+        <v>13.17609937280732</v>
       </c>
       <c r="F16">
-        <v>29.2297683789038</v>
+        <v>22.73975180885907</v>
       </c>
       <c r="I16">
-        <v>18.67895823294981</v>
+        <v>8.720048985342014</v>
       </c>
       <c r="J16">
-        <v>9.779699413437424</v>
+        <v>6.764946106453857</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.36263830853123</v>
+        <v>14.06207573694538</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.6378623396121</v>
+        <v>29.71823019796816</v>
       </c>
       <c r="C17">
-        <v>13.18276571476319</v>
+        <v>22.49629244446977</v>
       </c>
       <c r="D17">
-        <v>10.12663646429649</v>
+        <v>9.308385114947178</v>
       </c>
       <c r="E17">
-        <v>14.21777309098703</v>
+        <v>12.95926966628831</v>
       </c>
       <c r="F17">
-        <v>29.2433181435504</v>
+        <v>22.46172734575012</v>
       </c>
       <c r="I17">
-        <v>18.74612281110439</v>
+        <v>8.885781060760978</v>
       </c>
       <c r="J17">
-        <v>9.779124936609159</v>
+        <v>6.703990466093625</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.40011515194632</v>
+        <v>13.9757415032511</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.46193765244658</v>
+        <v>29.35081391964381</v>
       </c>
       <c r="C18">
-        <v>13.0374907647873</v>
+        <v>22.22019880990751</v>
       </c>
       <c r="D18">
-        <v>10.10663844297294</v>
+        <v>9.216462419566327</v>
       </c>
       <c r="E18">
-        <v>14.19563828240582</v>
+        <v>12.833733577542</v>
       </c>
       <c r="F18">
-        <v>29.25213794290227</v>
+        <v>22.30432618293346</v>
       </c>
       <c r="I18">
-        <v>18.78530552638706</v>
+        <v>8.983250308115801</v>
       </c>
       <c r="J18">
-        <v>9.778958177653395</v>
+        <v>6.66918952217946</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.42238723592428</v>
+        <v>13.92908414212041</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.40198047193272</v>
+        <v>29.22545169072143</v>
       </c>
       <c r="C19">
-        <v>12.98791773696115</v>
+        <v>22.12600036161703</v>
       </c>
       <c r="D19">
-        <v>10.09987895845273</v>
+        <v>9.185190576257725</v>
       </c>
       <c r="E19">
-        <v>14.1881813262598</v>
+        <v>12.79109027910822</v>
       </c>
       <c r="F19">
-        <v>29.2553001941858</v>
+        <v>22.25146516721021</v>
       </c>
       <c r="I19">
-        <v>18.79866683862821</v>
+        <v>9.016604601336194</v>
       </c>
       <c r="J19">
-        <v>9.77892984500836</v>
+        <v>6.657451354719552</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.4300509391686</v>
+        <v>13.91379541406038</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.67023503511527</v>
+        <v>29.78577477770564</v>
       </c>
       <c r="C20">
-        <v>13.20946953730348</v>
+        <v>22.54705070184522</v>
       </c>
       <c r="D20">
-        <v>10.13034300269978</v>
+        <v>9.325327121965394</v>
       </c>
       <c r="E20">
-        <v>14.22188744125127</v>
+        <v>12.98243706213431</v>
       </c>
       <c r="F20">
-        <v>29.24176946662704</v>
+        <v>22.49106387314384</v>
       </c>
       <c r="I20">
-        <v>18.73891595877167</v>
+        <v>8.867912890282387</v>
       </c>
       <c r="J20">
-        <v>9.77916915666585</v>
+        <v>6.710452556097582</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.39605146651627</v>
+        <v>13.98461991807507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.54381934076162</v>
+        <v>31.60195845304688</v>
       </c>
       <c r="C21">
-        <v>13.92691274413867</v>
+        <v>23.91210578779396</v>
       </c>
       <c r="D21">
-        <v>10.2334316748966</v>
+        <v>9.785660198709028</v>
       </c>
       <c r="E21">
-        <v>14.33766966249884</v>
+        <v>13.61538276098844</v>
       </c>
       <c r="F21">
-        <v>29.2085881005925</v>
+        <v>23.32601048474925</v>
       </c>
       <c r="I21">
-        <v>18.54474894066046</v>
+        <v>8.39521590140196</v>
       </c>
       <c r="J21">
-        <v>9.781927079896569</v>
+        <v>6.891603015297949</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.29039808020709</v>
+        <v>14.25888322933362</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.09363790688439</v>
+        <v>32.73998388301469</v>
       </c>
       <c r="C22">
-        <v>14.37559686338581</v>
+        <v>24.76766614886057</v>
       </c>
       <c r="D22">
-        <v>10.30127445512182</v>
+        <v>10.07850382512734</v>
       </c>
       <c r="E22">
-        <v>14.41513894711355</v>
+        <v>14.02134937888387</v>
       </c>
       <c r="F22">
-        <v>29.19609205512402</v>
+        <v>23.8938394323857</v>
       </c>
       <c r="I22">
-        <v>18.42275849307607</v>
+        <v>8.109486977321177</v>
       </c>
       <c r="J22">
-        <v>9.785181935131316</v>
+        <v>7.012240044126357</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.22778965276528</v>
+        <v>14.46619083159702</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.80214895848601</v>
+        <v>32.13704127649207</v>
       </c>
       <c r="C23">
-        <v>14.13798159701819</v>
+        <v>24.31435825108816</v>
       </c>
       <c r="D23">
-        <v>10.26502767497717</v>
+        <v>9.922950356924233</v>
       </c>
       <c r="E23">
-        <v>14.37363338836145</v>
+        <v>13.80539696611801</v>
       </c>
       <c r="F23">
-        <v>29.20191837587056</v>
+        <v>23.58876178641884</v>
       </c>
       <c r="I23">
-        <v>18.48741796266713</v>
+        <v>8.259634785318404</v>
       </c>
       <c r="J23">
-        <v>9.783312133247582</v>
+        <v>6.947650933341734</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.26061248202437</v>
+        <v>14.35291890059514</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.65560674522317</v>
+        <v>29.75525576965483</v>
       </c>
       <c r="C24">
-        <v>13.19740394574128</v>
+        <v>22.52411626160098</v>
       </c>
       <c r="D24">
-        <v>10.12866710360462</v>
+        <v>9.317670481747822</v>
       </c>
       <c r="E24">
-        <v>14.22002670283566</v>
+        <v>12.97196581186238</v>
       </c>
       <c r="F24">
-        <v>29.24246641606285</v>
+        <v>22.4777932302067</v>
       </c>
       <c r="I24">
-        <v>18.74217240451532</v>
+        <v>8.87598431783711</v>
       </c>
       <c r="J24">
-        <v>9.779148655389941</v>
+        <v>6.70753028672442</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.39788639743488</v>
+        <v>13.98059672859285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.33143084942764</v>
+        <v>26.97242091991987</v>
       </c>
       <c r="C25">
-        <v>12.09701482776449</v>
+        <v>20.43348017336662</v>
       </c>
       <c r="D25">
-        <v>9.98409755898329</v>
+        <v>8.631704748555</v>
       </c>
       <c r="E25">
-        <v>14.06263536441656</v>
+        <v>12.04198544314007</v>
       </c>
       <c r="F25">
-        <v>29.32539944408652</v>
+        <v>21.37555495975046</v>
       </c>
       <c r="I25">
-        <v>19.03805146126546</v>
+        <v>9.621541471312623</v>
       </c>
       <c r="J25">
-        <v>9.780916447615102</v>
+        <v>6.458483016658542</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.57330925135392</v>
+        <v>13.69262970530476</v>
       </c>
     </row>
   </sheetData>
